--- a/SeleniumPjt/TestData/TestDataExcel.xlsx
+++ b/SeleniumPjt/TestData/TestDataExcel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestConfiguration" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t>Execute</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>promoCodeTest</t>
+  </si>
+  <si>
+    <t>CheckWelcomeMessage</t>
+  </si>
+  <si>
+    <t>Welcome to Shoe Store!</t>
   </si>
 </sst>
 </file>
@@ -547,10 +553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,6 +613,14 @@
         <v>36</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -617,7 +631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17:B21"/>
     </sheetView>
   </sheetViews>

--- a/SeleniumPjt/TestData/TestDataExcel.xlsx
+++ b/SeleniumPjt/TestData/TestDataExcel.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="TestConfiguration" sheetId="1" r:id="rId1"/>
     <sheet name="MainPageTest" sheetId="2" r:id="rId2"/>
     <sheet name="MarchPageTest" sheetId="3" r:id="rId3"/>
-    <sheet name="SelectBrandTest" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Execute</t>
   </si>
@@ -57,9 +56,6 @@
   </si>
   <si>
     <t>FebruaryPageTest</t>
-  </si>
-  <si>
-    <t>SelectBrandTest</t>
   </si>
   <si>
     <t>ExpectedBehavior</t>
@@ -479,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +511,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -529,21 +525,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -555,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -574,10 +559,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -585,40 +570,40 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -649,13 +634,13 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -663,240 +648,226 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="5">
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="5">
         <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="5">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5">
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5">
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5">
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="5">
         <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="5">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>